--- a/target/classes/TestdataUtil/Testdata.xlsx
+++ b/target/classes/TestdataUtil/Testdata.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranji\eclipse-workspace\PetStoreAPIFramework\src\main\java\TestdataUtil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetStoreAPIFramework\src\main\java\TestdataUtil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDD806F-0B54-413D-8528-4D36B337D2F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9051B5FF-1C57-4621-9A2E-1949AB2CDDFE}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="19545" windowHeight="16500"/>
   </bookViews>
   <sheets>
-    <sheet name="testdata" sheetId="2" r:id="rId1"/>
+    <sheet name="getpet" sheetId="4" r:id="rId1"/>
+    <sheet name="addpettest" sheetId="2" r:id="rId2"/>
+    <sheet name="deletepet" sheetId="5" r:id="rId3"/>
+    <sheet name="IntegrationTest" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -50,16 +44,43 @@
     <t>available</t>
   </si>
   <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>tiger</t>
+    <t>parrot</t>
+  </si>
+  <si>
+    <t>jackel</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>peacock</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>dinosour</t>
+  </si>
+  <si>
+    <t>zebra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,16 +425,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02668F82-33F5-4D2C-B9CA-404CA56517EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,36 +445,246 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
